--- a/teaching/traditional_assets/database/data/costa_rica/costa_rica_healthcare_products.xlsx
+++ b/teaching/traditional_assets/database/data/costa_rica/costa_rica_healthcare_products.xlsx
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.07466340269277848</v>
+        <v>-0.1792682926829268</v>
       </c>
       <c r="H2">
-        <v>-0.2582619339045288</v>
+        <v>-0.3378048780487805</v>
       </c>
       <c r="I2">
-        <v>-0.4326362517361744</v>
+        <v>-0.2953982054892766</v>
       </c>
       <c r="J2">
-        <v>-0.4326362517361744</v>
+        <v>-0.2953982054892766</v>
       </c>
       <c r="K2">
-        <v>-43.1</v>
+        <v>-38</v>
       </c>
       <c r="L2">
-        <v>-0.5275397796817626</v>
+        <v>-0.4634146341463415</v>
       </c>
       <c r="M2">
-        <v>0.135</v>
+        <v>0.154</v>
       </c>
       <c r="N2">
-        <v>0.0002413731450026819</v>
+        <v>0.0001745635910224439</v>
       </c>
       <c r="O2">
-        <v>-0.003132250580046404</v>
+        <v>-0.004052631578947368</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +627,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.135</v>
+        <v>0.154</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>42.6</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="V2">
-        <v>0.07616663686751297</v>
+        <v>0.09226932668329177</v>
       </c>
       <c r="W2">
-        <v>-0.5597402597402598</v>
+        <v>-0.8675799086757991</v>
       </c>
       <c r="X2">
-        <v>0.1357147597851842</v>
+        <v>0.1064708366164812</v>
       </c>
       <c r="Y2">
-        <v>-0.695455019525444</v>
+        <v>-0.9740507452922804</v>
       </c>
       <c r="Z2">
-        <v>2.155279934781461</v>
+        <v>1.593369584966397</v>
       </c>
       <c r="AA2">
-        <v>-0.9324522324260376</v>
+        <v>-0.4706785160802672</v>
       </c>
       <c r="AB2">
-        <v>0.1282856105014058</v>
+        <v>0.1034320223648314</v>
       </c>
       <c r="AC2">
-        <v>-1.060737842927443</v>
+        <v>-0.5741105384450986</v>
       </c>
       <c r="AD2">
-        <v>48.1</v>
+        <v>49.6</v>
       </c>
       <c r="AE2">
-        <v>5.171908834227208</v>
+        <v>2.628264250603424</v>
       </c>
       <c r="AF2">
-        <v>53.27190883422721</v>
+        <v>52.22826425060342</v>
       </c>
       <c r="AG2">
-        <v>10.67190883422721</v>
+        <v>-29.17173574939658</v>
       </c>
       <c r="AH2">
-        <v>0.0869643352330796</v>
+        <v>0.05589328389214517</v>
       </c>
       <c r="AI2">
-        <v>0.5487881043443923</v>
+        <v>0.394985629937777</v>
       </c>
       <c r="AJ2">
-        <v>0.01872356982654573</v>
+        <v>-0.03419785366083308</v>
       </c>
       <c r="AK2">
-        <v>0.1959158227170765</v>
+        <v>-0.5739274433132008</v>
       </c>
       <c r="AL2">
-        <v>8.83</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AM2">
-        <v>8.81</v>
+        <v>9.286999999999999</v>
       </c>
       <c r="AN2">
-        <v>-1.536152273888605</v>
+        <v>-2.468030054236951</v>
       </c>
       <c r="AO2">
-        <v>-3.986409966024915</v>
+        <v>-2.615715823466093</v>
       </c>
       <c r="AP2">
-        <v>-0.3408248861212063</v>
+        <v>1.451546785559864</v>
       </c>
       <c r="AQ2">
-        <v>-3.995459704880817</v>
+        <v>-2.616560783891462</v>
       </c>
     </row>
     <row r="3">
@@ -719,31 +719,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.07466340269277848</v>
+        <v>-0.1792682926829268</v>
       </c>
       <c r="H3">
-        <v>-0.2582619339045288</v>
+        <v>-0.3378048780487805</v>
       </c>
       <c r="I3">
-        <v>-0.4326362517361744</v>
+        <v>-0.2953982054892766</v>
       </c>
       <c r="J3">
-        <v>-0.4326362517361744</v>
+        <v>-0.2953982054892766</v>
       </c>
       <c r="K3">
-        <v>-43.1</v>
+        <v>-38</v>
       </c>
       <c r="L3">
-        <v>-0.5275397796817626</v>
+        <v>-0.4634146341463415</v>
       </c>
       <c r="M3">
-        <v>0.135</v>
+        <v>0.154</v>
       </c>
       <c r="N3">
-        <v>0.0002413731450026819</v>
+        <v>0.0001745635910224439</v>
       </c>
       <c r="O3">
-        <v>-0.003132250580046404</v>
+        <v>-0.004052631578947368</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +755,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.135</v>
+        <v>0.154</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>42.6</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="V3">
-        <v>0.07616663686751297</v>
+        <v>0.09226932668329177</v>
       </c>
       <c r="W3">
-        <v>-0.5597402597402598</v>
+        <v>-0.8675799086757991</v>
       </c>
       <c r="X3">
-        <v>0.1357147597851842</v>
+        <v>0.1064708366164812</v>
       </c>
       <c r="Y3">
-        <v>-0.695455019525444</v>
+        <v>-0.9740507452922804</v>
       </c>
       <c r="Z3">
-        <v>2.155279934781461</v>
+        <v>1.593369584966397</v>
       </c>
       <c r="AA3">
-        <v>-0.9324522324260376</v>
+        <v>-0.4706785160802672</v>
       </c>
       <c r="AB3">
-        <v>0.1282856105014058</v>
+        <v>0.1034320223648314</v>
       </c>
       <c r="AC3">
-        <v>-1.060737842927443</v>
+        <v>-0.5741105384450986</v>
       </c>
       <c r="AD3">
-        <v>48.1</v>
+        <v>49.6</v>
       </c>
       <c r="AE3">
-        <v>5.171908834227208</v>
+        <v>2.628264250603424</v>
       </c>
       <c r="AF3">
-        <v>53.27190883422721</v>
+        <v>52.22826425060342</v>
       </c>
       <c r="AG3">
-        <v>10.67190883422721</v>
+        <v>-29.17173574939658</v>
       </c>
       <c r="AH3">
-        <v>0.0869643352330796</v>
+        <v>0.05589328389214517</v>
       </c>
       <c r="AI3">
-        <v>0.5487881043443923</v>
+        <v>0.394985629937777</v>
       </c>
       <c r="AJ3">
-        <v>0.01872356982654573</v>
+        <v>-0.03419785366083308</v>
       </c>
       <c r="AK3">
-        <v>0.1959158227170765</v>
+        <v>-0.5739274433132008</v>
       </c>
       <c r="AL3">
-        <v>8.83</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AM3">
-        <v>8.81</v>
+        <v>9.286999999999999</v>
       </c>
       <c r="AN3">
-        <v>-1.536152273888605</v>
+        <v>-2.468030054236951</v>
       </c>
       <c r="AO3">
-        <v>-3.986409966024915</v>
+        <v>-2.615715823466093</v>
       </c>
       <c r="AP3">
-        <v>-0.3408248861212063</v>
+        <v>1.451546785559864</v>
       </c>
       <c r="AQ3">
-        <v>-3.995459704880817</v>
+        <v>-2.616560783891462</v>
       </c>
     </row>
   </sheetData>
